--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nid2-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nid2-Col13a1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.583908</v>
+        <v>38.92704733333333</v>
       </c>
       <c r="H2">
-        <v>52.751724</v>
+        <v>116.781142</v>
       </c>
       <c r="I2">
-        <v>0.1399728182997268</v>
+        <v>0.2481365284058833</v>
       </c>
       <c r="J2">
-        <v>0.1399728182997268</v>
+        <v>0.2481365284058833</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.192247</v>
+        <v>0.6763629999999999</v>
       </c>
       <c r="N2">
-        <v>0.5767410000000001</v>
+        <v>2.029089</v>
       </c>
       <c r="O2">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="P2">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="Q2">
-        <v>3.380453561276</v>
+        <v>26.32881451551533</v>
       </c>
       <c r="R2">
-        <v>30.424082051484</v>
+        <v>236.959330639638</v>
       </c>
       <c r="S2">
-        <v>0.05922157175240252</v>
+        <v>0.1520411470436202</v>
       </c>
       <c r="T2">
-        <v>0.05922157175240252</v>
+        <v>0.1520411470436202</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.583908</v>
+        <v>38.92704733333333</v>
       </c>
       <c r="H3">
-        <v>52.751724</v>
+        <v>116.781142</v>
       </c>
       <c r="I3">
-        <v>0.1399728182997268</v>
+        <v>0.2481365284058833</v>
       </c>
       <c r="J3">
-        <v>0.1399728182997268</v>
+        <v>0.2481365284058833</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.05377866666666666</v>
+        <v>0.05377866666666667</v>
       </c>
       <c r="N3">
         <v>0.161336</v>
       </c>
       <c r="O3">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984812</v>
       </c>
       <c r="P3">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984811</v>
       </c>
       <c r="Q3">
-        <v>0.9456391270293333</v>
+        <v>2.093444702856889</v>
       </c>
       <c r="R3">
-        <v>8.510752143264</v>
+        <v>18.841002325712</v>
       </c>
       <c r="S3">
-        <v>0.01656648564996352</v>
+        <v>0.01208902640516484</v>
       </c>
       <c r="T3">
-        <v>0.01656648564996352</v>
+        <v>0.01208902640516484</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.583908</v>
+        <v>38.92704733333333</v>
       </c>
       <c r="H4">
-        <v>52.751724</v>
+        <v>116.781142</v>
       </c>
       <c r="I4">
-        <v>0.1399728182997268</v>
+        <v>0.2481365284058833</v>
       </c>
       <c r="J4">
-        <v>0.1399728182997268</v>
+        <v>0.2481365284058833</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2083586666666667</v>
+        <v>0.3737066666666666</v>
       </c>
       <c r="N4">
-        <v>0.6250760000000001</v>
+        <v>1.12112</v>
       </c>
       <c r="O4">
-        <v>0.458551607926623</v>
+        <v>0.3385489250485801</v>
       </c>
       <c r="P4">
-        <v>0.4585516079266231</v>
+        <v>0.33854892504858</v>
       </c>
       <c r="Q4">
-        <v>3.663759625669334</v>
+        <v>14.54729710211555</v>
       </c>
       <c r="R4">
-        <v>32.97383663102401</v>
+        <v>130.92567391904</v>
       </c>
       <c r="S4">
-        <v>0.06418476089736078</v>
+        <v>0.08400635495709825</v>
       </c>
       <c r="T4">
-        <v>0.06418476089736079</v>
+        <v>0.08400635495709824</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>97.97927366666666</v>
+        <v>97.97927366666669</v>
       </c>
       <c r="H5">
         <v>293.937821</v>
       </c>
       <c r="I5">
-        <v>0.779942380845233</v>
+        <v>0.6245589760556541</v>
       </c>
       <c r="J5">
-        <v>0.779942380845233</v>
+        <v>0.6245589760556541</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.192247</v>
+        <v>0.6763629999999999</v>
       </c>
       <c r="N5">
-        <v>0.5767410000000001</v>
+        <v>2.029089</v>
       </c>
       <c r="O5">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="P5">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="Q5">
-        <v>18.83622142459567</v>
+        <v>66.26955547500768</v>
       </c>
       <c r="R5">
-        <v>169.525992821361</v>
+        <v>596.4259992750691</v>
       </c>
       <c r="S5">
-        <v>0.3299884522654908</v>
+        <v>0.3826871590649655</v>
       </c>
       <c r="T5">
-        <v>0.3299884522654908</v>
+        <v>0.3826871590649655</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>97.97927366666666</v>
+        <v>97.97927366666669</v>
       </c>
       <c r="H6">
         <v>293.937821</v>
       </c>
       <c r="I6">
-        <v>0.779942380845233</v>
+        <v>0.6245589760556541</v>
       </c>
       <c r="J6">
-        <v>0.779942380845233</v>
+        <v>0.6245589760556541</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.05377866666666666</v>
+        <v>0.05377866666666667</v>
       </c>
       <c r="N6">
         <v>0.161336</v>
       </c>
       <c r="O6">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984812</v>
       </c>
       <c r="P6">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984811</v>
       </c>
       <c r="Q6">
-        <v>5.269194698761777</v>
+        <v>5.269194698761779</v>
       </c>
       <c r="R6">
-        <v>47.42275228885599</v>
+        <v>47.42275228885601</v>
       </c>
       <c r="S6">
-        <v>0.09231009575304203</v>
+        <v>0.03042804701760509</v>
       </c>
       <c r="T6">
-        <v>0.09231009575304203</v>
+        <v>0.03042804701760508</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>97.97927366666666</v>
+        <v>97.97927366666669</v>
       </c>
       <c r="H7">
         <v>293.937821</v>
       </c>
       <c r="I7">
-        <v>0.779942380845233</v>
+        <v>0.6245589760556541</v>
       </c>
       <c r="J7">
-        <v>0.779942380845233</v>
+        <v>0.6245589760556541</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2083586666666667</v>
+        <v>0.3737066666666666</v>
       </c>
       <c r="N7">
-        <v>0.6250760000000001</v>
+        <v>1.12112</v>
       </c>
       <c r="O7">
-        <v>0.458551607926623</v>
+        <v>0.3385489250485801</v>
       </c>
       <c r="P7">
-        <v>0.4585516079266231</v>
+        <v>0.33854892504858</v>
       </c>
       <c r="Q7">
-        <v>20.41483082215511</v>
+        <v>36.61550776439111</v>
       </c>
       <c r="R7">
-        <v>183.733477399396</v>
+        <v>329.53956987952</v>
       </c>
       <c r="S7">
-        <v>0.3576438328267002</v>
+        <v>0.2114437699730836</v>
       </c>
       <c r="T7">
-        <v>0.3576438328267003</v>
+        <v>0.2114437699730835</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.493470333333333</v>
+        <v>19.463074</v>
       </c>
       <c r="H8">
-        <v>28.480411</v>
+        <v>58.389222</v>
       </c>
       <c r="I8">
-        <v>0.07557067507413674</v>
+        <v>0.1240653978482281</v>
       </c>
       <c r="J8">
-        <v>0.07557067507413674</v>
+        <v>0.1240653978482281</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.192247</v>
+        <v>0.6763629999999999</v>
       </c>
       <c r="N8">
-        <v>0.5767410000000001</v>
+        <v>2.029089</v>
       </c>
       <c r="O8">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="P8">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="Q8">
-        <v>1.825091191172334</v>
+        <v>13.164103119862</v>
       </c>
       <c r="R8">
-        <v>16.425820720551</v>
+        <v>118.476928078758</v>
       </c>
       <c r="S8">
-        <v>0.03197345177902459</v>
+        <v>0.0760188172150653</v>
       </c>
       <c r="T8">
-        <v>0.03197345177902459</v>
+        <v>0.0760188172150653</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.493470333333333</v>
+        <v>19.463074</v>
       </c>
       <c r="H9">
-        <v>28.480411</v>
+        <v>58.389222</v>
       </c>
       <c r="I9">
-        <v>0.07557067507413674</v>
+        <v>0.1240653978482281</v>
       </c>
       <c r="J9">
-        <v>0.07557067507413674</v>
+        <v>0.1240653978482281</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05377866666666666</v>
+        <v>0.05377866666666667</v>
       </c>
       <c r="N9">
         <v>0.161336</v>
       </c>
       <c r="O9">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984812</v>
       </c>
       <c r="P9">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984811</v>
       </c>
       <c r="Q9">
-        <v>0.5105461765662221</v>
+        <v>1.046698168954667</v>
       </c>
       <c r="R9">
-        <v>4.594915589096</v>
+        <v>9.420283520592001</v>
       </c>
       <c r="S9">
-        <v>0.008944168727766379</v>
+        <v>0.006044373555920799</v>
       </c>
       <c r="T9">
-        <v>0.008944168727766379</v>
+        <v>0.006044373555920798</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.493470333333333</v>
+        <v>19.463074</v>
       </c>
       <c r="H10">
-        <v>28.480411</v>
+        <v>58.389222</v>
       </c>
       <c r="I10">
-        <v>0.07557067507413674</v>
+        <v>0.1240653978482281</v>
       </c>
       <c r="J10">
-        <v>0.07557067507413674</v>
+        <v>0.1240653978482281</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2083586666666667</v>
+        <v>0.3737066666666666</v>
       </c>
       <c r="N10">
-        <v>0.6250760000000001</v>
+        <v>1.12112</v>
       </c>
       <c r="O10">
-        <v>0.458551607926623</v>
+        <v>0.3385489250485801</v>
       </c>
       <c r="P10">
-        <v>0.4585516079266231</v>
+        <v>0.33854892504858</v>
       </c>
       <c r="Q10">
-        <v>1.978046820692889</v>
+        <v>7.273480507626667</v>
       </c>
       <c r="R10">
-        <v>17.802421386236</v>
+        <v>65.46132456863999</v>
       </c>
       <c r="S10">
-        <v>0.03465305456734578</v>
+        <v>0.04200220707724206</v>
       </c>
       <c r="T10">
-        <v>0.03465305456734578</v>
+        <v>0.04200220707724205</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5670813333333333</v>
+        <v>0.5081416666666667</v>
       </c>
       <c r="H11">
-        <v>1.701244</v>
+        <v>1.524425</v>
       </c>
       <c r="I11">
-        <v>0.004514125780903397</v>
+        <v>0.003239097690234427</v>
       </c>
       <c r="J11">
-        <v>0.004514125780903397</v>
+        <v>0.003239097690234427</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.192247</v>
+        <v>0.6763629999999999</v>
       </c>
       <c r="N11">
-        <v>0.5767410000000001</v>
+        <v>2.029089</v>
       </c>
       <c r="O11">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="P11">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="Q11">
-        <v>0.1090196850893334</v>
+        <v>0.3436882220916667</v>
       </c>
       <c r="R11">
-        <v>0.9811771658040001</v>
+        <v>3.093193998825</v>
       </c>
       <c r="S11">
-        <v>0.001909896700520049</v>
+        <v>0.00198469822792083</v>
       </c>
       <c r="T11">
-        <v>0.001909896700520049</v>
+        <v>0.00198469822792083</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5670813333333333</v>
+        <v>0.5081416666666667</v>
       </c>
       <c r="H12">
-        <v>1.701244</v>
+        <v>1.524425</v>
       </c>
       <c r="I12">
-        <v>0.004514125780903397</v>
+        <v>0.003239097690234427</v>
       </c>
       <c r="J12">
-        <v>0.004514125780903397</v>
+        <v>0.003239097690234427</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1175,28 +1175,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.05377866666666666</v>
+        <v>0.05377866666666667</v>
       </c>
       <c r="N12">
         <v>0.161336</v>
       </c>
       <c r="O12">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984812</v>
       </c>
       <c r="P12">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984811</v>
       </c>
       <c r="Q12">
-        <v>0.03049687799822222</v>
+        <v>0.02732718131111112</v>
       </c>
       <c r="R12">
-        <v>0.274471901984</v>
+        <v>0.2459446318</v>
       </c>
       <c r="S12">
-        <v>0.0005342694451670725</v>
+        <v>0.0001578064211573938</v>
       </c>
       <c r="T12">
-        <v>0.0005342694451670725</v>
+        <v>0.0001578064211573938</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5670813333333333</v>
+        <v>0.5081416666666667</v>
       </c>
       <c r="H13">
-        <v>1.701244</v>
+        <v>1.524425</v>
       </c>
       <c r="I13">
-        <v>0.004514125780903397</v>
+        <v>0.003239097690234427</v>
       </c>
       <c r="J13">
-        <v>0.004514125780903397</v>
+        <v>0.003239097690234427</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2083586666666667</v>
+        <v>0.3737066666666666</v>
       </c>
       <c r="N13">
-        <v>0.6250760000000001</v>
+        <v>1.12112</v>
       </c>
       <c r="O13">
-        <v>0.458551607926623</v>
+        <v>0.3385489250485801</v>
       </c>
       <c r="P13">
-        <v>0.4585516079266231</v>
+        <v>0.33854892504858</v>
       </c>
       <c r="Q13">
-        <v>0.1181563105048889</v>
+        <v>0.1898959284444444</v>
       </c>
       <c r="R13">
-        <v>1.063406794544</v>
+        <v>1.709063356</v>
       </c>
       <c r="S13">
-        <v>0.002069959635216275</v>
+        <v>0.001096593041156204</v>
       </c>
       <c r="T13">
-        <v>0.002069959635216276</v>
+        <v>0.001096593041156204</v>
       </c>
     </row>
   </sheetData>
